--- a/data/channels_bank_list_updated_2.xlsx
+++ b/data/channels_bank_list_updated_2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JOWembo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JOWembo/Desktop/Standalone-Scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F83009B-242C-E749-9EB7-EF52B0F0D713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD6E6B7-6A1E-8645-97C0-0526B3EC29B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -4821,7 +4821,7 @@
   <customSheetViews>
     <customSheetView guid="{73EB2D57-CF89-4DA1-8F05-D0CCE6355A18}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="L8" xr:uid="{12112718-E4ED-8548-ABC3-541AC295E819}"/>
+      <autoFilter ref="L8" xr:uid="{76890DB7-8201-2E42-AA3C-EA36F2B0790C}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1562561644"/>

--- a/data/channels_bank_list_updated_2.xlsx
+++ b/data/channels_bank_list_updated_2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10107"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/JOWembo/Desktop/Standalone-Scripts/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FD6E6B7-6A1E-8645-97C0-0526B3EC29B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19294860-5F04-A24F-BC36-5F17C65F8391}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1220,8 +1220,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H54" sqref="H54"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1"/>
@@ -1230,7 +1230,7 @@
     <col min="3" max="3" width="25.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.5" customWidth="1"/>
     <col min="5" max="5" width="16.5" customWidth="1"/>
-    <col min="6" max="6" width="9.6640625" customWidth="1"/>
+    <col min="6" max="6" width="26.5" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
     <col min="8" max="8" width="8.6640625" customWidth="1"/>
     <col min="9" max="9" width="8.5" customWidth="1"/>
@@ -4821,7 +4821,7 @@
   <customSheetViews>
     <customSheetView guid="{73EB2D57-CF89-4DA1-8F05-D0CCE6355A18}" filter="1" showAutoFilter="1">
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-      <autoFilter ref="L8" xr:uid="{76890DB7-8201-2E42-AA3C-EA36F2B0790C}"/>
+      <autoFilter ref="L8" xr:uid="{FA4EAA15-A2C4-1E4F-A2F4-FCC284CEAE9B}"/>
       <extLst>
         <ext uri="GoogleSheetsCustomDataVersion1">
           <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" filterViewId="1562561644"/>
